--- a/IPC2024_base2010/imputacion/sinrecodificar_1_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_1_2024.xlsx
@@ -1327,7 +1327,7 @@
     <t>Examen de Covid</t>
   </si>
   <si>
-    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
+    <t>Alquiler de vehículo por día (kilometraje)</t>
   </si>
   <si>
     <t>Samsung Galaxy Tab S9 Wifi, 128 GB, 11"</t>
